--- a/Uedaが如く/仕様/仕様書.xlsx
+++ b/Uedaが如く/仕様/仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8302D9-0781-4394-855F-517F692571B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9162FB3A-747F-4EB9-BE1A-A8A03AD45170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="30" windowWidth="19890" windowHeight="15180" xr2:uid="{FCE3F40B-A578-4D19-92AF-07BE67B29835}"/>
+    <workbookView xWindow="8910" yWindow="30" windowWidth="19890" windowHeight="15180" xr2:uid="{FCE3F40B-A578-4D19-92AF-07BE67B29835}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -43,29 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
-  <si>
-    <t>龍が如くの闘技場のシステム部分を再現する。</t>
-    <rPh sb="0" eb="1">
-      <t>リュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>トウギジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・1ボタンで攻撃</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>・攻撃するたびにゲージがたまる</t>
   </si>
@@ -74,232 +52,6 @@
   </si>
   <si>
     <t>・敵と1対1で戦う</t>
-  </si>
-  <si>
-    <t>・敵を3種類倒したらクリア</t>
-  </si>
-  <si>
-    <t>・頭上から回復アイテムや武器が降ってくる</t>
-  </si>
-  <si>
-    <t>参考動画:</t>
-    <rPh sb="0" eb="2">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://youtu.be/Xgt2ANVRbQw?si=BiLciGmxiPxgQeXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンセプト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バトル仕様</t>
-    <rPh sb="3" eb="5">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左スティック</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右スティック</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラ操作</t>
-    <rPh sb="3" eb="5">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回避</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポーズメニュー表示</t>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>構え</t>
-    <rPh sb="0" eb="1">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X→X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パンチ、連打するとコンボが繋がる</t>
-    <rPh sb="4" eb="6">
-      <t>レンダ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵や武器をつかむ</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃パターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X→X→X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クリアタイムを競う</t>
-    <rPh sb="8" eb="9">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵を吹き飛ばす強攻撃、Xボタンに続いて入力することでコンボが繋がる
-ヒートゲージが溜まっている場合必殺技を出せる</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ツナ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ヒッサツワザ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X→X→X→X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X→Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X→X→Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B→A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B→Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左スティック+A</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>①プレイヤー</t>
@@ -331,13 +83,6 @@
     <t>ゲーム中</t>
     <rPh sb="3" eb="4">
       <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラー操作</t>
-    <rPh sb="7" eb="9">
-      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,6 +128,156 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+  </si>
+  <si>
+    <t>龍が如くの闘技場のシステム部分を再現する。</t>
+  </si>
+  <si>
+    <t>参考動画:</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Xgt2ANVRbQw?si=BiLciGmxiPxgQeXT</t>
+  </si>
+  <si>
+    <t>バトル仕様</t>
+  </si>
+  <si>
+    <t>・3連勝したらクリア</t>
+  </si>
+  <si>
+    <t>・3連戦のクリアタイムを競う</t>
+  </si>
+  <si>
+    <t>・プレイヤーのHPが0になったらゲームオーバー</t>
+  </si>
+  <si>
+    <t>・1戦勝つたびに体力の30%回復する</t>
+  </si>
+  <si>
+    <t>→敵に攻撃されるとゲージが減る</t>
+  </si>
+  <si>
+    <t>・一定時間ごとに頭上から回復アイテムや武器が降ってくる</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>コントローラー操作</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>左スティック</t>
+  </si>
+  <si>
+    <t>移動</t>
+  </si>
+  <si>
+    <t>右スティック</t>
+  </si>
+  <si>
+    <t>カメラ操作</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>弱攻撃、連打でコンボが繋がる</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>強攻撃、Xボタンに続いて入力することでコンボが繋がる</t>
+  </si>
+  <si>
+    <t>ヒートゲージが溜まっている場合、必殺技を出せる</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>敵や武器をつかむ、武器を投げる</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>ガード</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>構え</t>
+  </si>
+  <si>
+    <t>攻撃パターン</t>
+  </si>
+  <si>
+    <t>X→X</t>
+  </si>
+  <si>
+    <t>パンチコンボ</t>
+  </si>
+  <si>
+    <t>X→X→X</t>
+  </si>
+  <si>
+    <t>X→X→X→X</t>
+  </si>
+  <si>
+    <t>X→X→X→X→X</t>
+  </si>
+  <si>
+    <t>X長押し、Y長押し</t>
+  </si>
+  <si>
+    <t>チャージ攻撃</t>
+  </si>
+  <si>
+    <t>X→Y</t>
+  </si>
+  <si>
+    <t>パンチ→アッパー</t>
+  </si>
+  <si>
+    <t>X→X→Y</t>
+  </si>
+  <si>
+    <t>B→X</t>
+  </si>
+  <si>
+    <t>つかんだ敵を攻撃、つかんだ武器を振る</t>
+  </si>
+  <si>
+    <t>B→Y</t>
+  </si>
+  <si>
+    <t>RB+Y</t>
+  </si>
+  <si>
+    <t>虎落とし</t>
+  </si>
+  <si>
+    <t>RBで構えて敵の攻撃がヒットする直前にY</t>
+  </si>
+  <si>
+    <t>左スティック+A</t>
+  </si>
+  <si>
+    <t>左スティックの入力方向に回避</t>
   </si>
 </sst>
 </file>
@@ -416,14 +311,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,18 +339,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0EED6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -511,6 +430,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,35 +541,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4928,7 +4978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA8B4C-0C99-404A-B26A-0178DA413C5C}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4938,200 +4988,324 @@
     <col min="3" max="3" width="66.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C13" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="7"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
+      <c r="A21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="26"/>
+      <c r="C42" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B41:B42"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{B378CF59-32B1-45E7-BBA9-575A717D5EE3}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{0B18815A-5F31-4931-8D6F-34F635E4E363}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5154,7 +5328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B0E1FF-BC2B-42A5-9E78-2DFCAA96A6BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -5177,12 +5353,12 @@
   <sheetData>
     <row r="4" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O4" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5204,12 +5380,12 @@
   <sheetData>
     <row r="4" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P5" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5229,35 +5405,35 @@
   <sheetData>
     <row r="2" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="N5" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="N6" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="N8" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="N9" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Uedaが如く/仕様/仕様書.xlsx
+++ b/Uedaが如く/仕様/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE4BB1D-6E2D-4633-96EC-97D0589AFF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F244BAA-447C-45CF-9EED-B30F0D52496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCE3F40B-A578-4D19-92AF-07BE67B29835}"/>
   </bookViews>
@@ -947,6 +947,21 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -960,21 +975,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13688,8 +13688,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -13697,8 +13697,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
         <v>33</v>
       </c>
@@ -13810,7 +13810,7 @@
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -13818,7 +13818,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B42" s="27"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="21" t="s">
         <v>58</v>
       </c>
@@ -13857,10 +13857,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
@@ -13873,10 +13873,10 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
@@ -13899,10 +13899,10 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
@@ -13933,8 +13933,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13954,8 +13954,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -13984,8 +13984,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -14339,8 +14339,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -14406,8 +14406,8 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P31" s="5"/>
     </row>
-    <row r="48" spans="1:1" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -14421,8 +14421,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14449,14 +14449,14 @@
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="P78" s="31" t="s">
+      <c r="P78" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31" t="s">
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="S78" s="31"/>
+      <c r="S78" s="26"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="P79" s="5" t="s">
@@ -14563,8 +14563,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14643,8 +14643,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="29" t="s">
+    <row r="48" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
         <v>116</v>
       </c>
     </row>
@@ -14668,8 +14668,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14709,8 +14709,8 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>107</v>
       </c>
     </row>
@@ -14759,8 +14759,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Uedaが如く/仕様/仕様書.xlsx
+++ b/Uedaが如く/仕様/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F244BAA-447C-45CF-9EED-B30F0D52496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD685F-0D56-46A0-9F11-0CD9C8B7F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCE3F40B-A578-4D19-92AF-07BE67B29835}"/>
+    <workbookView xWindow="8910" yWindow="300" windowWidth="19890" windowHeight="15180" xr2:uid="{FCE3F40B-A578-4D19-92AF-07BE67B29835}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
   <si>
     <t>・攻撃するたびにゲージがたまる</t>
   </si>
@@ -240,15 +240,6 @@
   </si>
   <si>
     <t>B→Y</t>
-  </si>
-  <si>
-    <t>RB+Y</t>
-  </si>
-  <si>
-    <t>虎落とし</t>
-  </si>
-  <si>
-    <t>RBで構えて敵の攻撃がヒットする直前にY</t>
   </si>
   <si>
     <t>左スティック+A</t>
@@ -723,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -842,32 +833,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,12 +903,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,12 +928,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13515,7 +13468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA8B4C-0C99-404A-B26A-0178DA413C5C}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13688,8 +13641,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -13697,8 +13650,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="13" t="s">
         <v>33</v>
       </c>
@@ -13740,10 +13693,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13810,32 +13763,17 @@
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B42" s="32"/>
-      <c r="C42" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -13857,66 +13795,66 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
-        <v>62</v>
+      <c r="B2" s="21" t="s">
+        <v>59</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
-        <v>124</v>
+      <c r="B6" s="25" t="s">
+        <v>121</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="25" t="s">
-        <v>129</v>
+      <c r="B12" s="23" t="s">
+        <v>126</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -13933,9 +13871,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>61</v>
+    <row r="2" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13954,19 +13892,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>62</v>
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O4" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O5" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -13984,9 +13922,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>63</v>
+    <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -14001,7 +13939,7 @@
     </row>
     <row r="24" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14051,7 +13989,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="Q27" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R27" s="5"/>
     </row>
@@ -14072,7 +14010,7 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="Q28" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R28" s="5"/>
     </row>
@@ -14093,7 +14031,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="Q29" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R29" s="5"/>
     </row>
@@ -14114,7 +14052,7 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="Q30" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R30" s="5"/>
     </row>
@@ -14282,7 +14220,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="Q39" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R39" s="5"/>
     </row>
@@ -14303,7 +14241,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="Q40" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R40" s="5"/>
     </row>
@@ -14339,19 +14277,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>71</v>
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O5" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
@@ -14359,12 +14297,12 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O8" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O9" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -14375,60 +14313,60 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O12" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P29" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P30" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P31" s="5"/>
     </row>
-    <row r="48" spans="1:1" s="24" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="24" t="s">
-        <v>81</v>
+    <row r="48" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P52" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P53" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="25" t="s">
-        <v>82</v>
+    <row r="71" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
       <c r="P75" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
@@ -14436,7 +14374,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
       <c r="P76" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
@@ -14449,14 +14387,14 @@
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="P78" s="26" t="s">
-        <v>85</v>
+      <c r="P78" s="24" t="s">
+        <v>82</v>
       </c>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="26" t="s">
-        <v>86</v>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24" t="s">
+        <v>83</v>
       </c>
-      <c r="S78" s="26"/>
+      <c r="S78" s="24"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="P79" s="5" t="s">
@@ -14464,37 +14402,37 @@
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S79" s="5"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.4">
       <c r="P80" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S80" s="5"/>
     </row>
     <row r="81" spans="16:19" x14ac:dyDescent="0.4">
       <c r="P81" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S81" s="5"/>
     </row>
     <row r="82" spans="16:19" x14ac:dyDescent="0.4">
       <c r="P82" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S82" s="5"/>
     </row>
@@ -14504,17 +14442,17 @@
       </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S83" s="5"/>
     </row>
     <row r="84" spans="16:19" x14ac:dyDescent="0.4">
       <c r="P84" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S84" s="5"/>
     </row>
@@ -14524,7 +14462,7 @@
       </c>
       <c r="Q85" s="5"/>
       <c r="R85" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S85" s="5"/>
     </row>
@@ -14534,17 +14472,17 @@
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S86" s="5"/>
     </row>
     <row r="87" spans="16:19" x14ac:dyDescent="0.4">
       <c r="P87" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q87" s="5"/>
       <c r="R87" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S87" s="5"/>
     </row>
@@ -14563,14 +14501,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N6" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -14578,7 +14516,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -14592,7 +14530,7 @@
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
@@ -14625,32 +14563,32 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P34" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P35" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P36" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P37" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="24" t="s">
-        <v>116</v>
+    <row r="48" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -14668,29 +14606,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>101</v>
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N6" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N7" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N8" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -14709,39 +14647,39 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>107</v>
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O5" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O6" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O28" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O29" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O30" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -14759,29 +14697,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
-        <v>102</v>
+    <row r="2" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P5" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P6" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="P8" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
